--- a/backend/employees.xlsx
+++ b/backend/employees.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t>empId</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>7e7c1518-ac4a-47a0-ba4e-ec959eb4deb4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Software dev</t>
+  </si>
+  <si>
+    <t>52ecf11d-154b-4331-b007-09761a4d90d0</t>
   </si>
 </sst>
 </file>
@@ -498,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,6 +863,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
